--- a/biology/Botanique/Asterolampraceae/Asterolampraceae.xlsx
+++ b/biology/Botanique/Asterolampraceae/Asterolampraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astérolampracées
 Les Asterolampraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Asterolamprales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Asterolampra,  dérivé du grec άστήρ / ástir, étoile, et λαμπω / lampo, briller.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,18 +613,20 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (19 juin 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (19 juin 2022) :
 Asterolampra Ehrenberg, 1844
 Asteromphalus Ehrenberg, 1844
 Rylandsia Greville &amp; Ralfs, 1861
 Siphonodiscus S.Komura, 1996
 Spatangidium Brébisson, 1857
-Selon ITIS      (21 juillet 2017)[2] :
+Selon ITIS      (21 juillet 2017) :
 Asterolampra Ehrenberg
 Asteromphalus Ehrenberg
-Selon World Register of Marine Species                               (27 avr. 2010)[3] :
+Selon World Register of Marine Species                               (27 avr. 2010) :
 Asterolampra  Ehrenberg, 1844
 Asteromphalus  Ehrenberg, 1844
 Trigonium</t>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Asterolampraceae H.L.Smith, 1872[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Asterolampraceae H.L.Smith, 1872.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Smith, H.L. (1872). Conspectus of the families and genera of the Diatomaceae. I-III. The Lens 1:  1-19, 72-93, 154-157.</t>
         </is>
